--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">When she realizes she’s sure to lose, Zumama brings out her trump card: a mechanical monster called the "Big, Ugly Thing"!
+    <t xml:space="preserve">When she realizes she’s sure to lose, Zumama brings out her trump card: a mechanical monster called the 'Big, Ugly Thing'!
 </t>
   </si>
   <si>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
@@ -44,11 +44,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">With Zumama dominating the arena, Gavial can’t resist jumping up to challenge her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When she realizes she’s sure to lose, Zumama brings out her trump card: a mechanical monster called the 'Big, Ugly Thing'!
+    <t xml:space="preserve">With Zumama dominating the arena, Gavial can't resist jumping up to challenge her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When she realizes she's sure to lose, Zumama brings out her trump card: a mechanical monster called the 'Big, Ugly Thing'!
 </t>
   </si>
   <si>
